--- a/InputData/trans/VBDR/Veh Buyer Discount Rate.xlsx
+++ b/InputData/trans/VBDR/Veh Buyer Discount Rate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\VBDR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\trans\VBDR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B31658-246D-4DE9-95B5-8F5A3BB03FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="21075" windowHeight="13110"/>
+    <workbookView xWindow="21090" yWindow="660" windowWidth="25935" windowHeight="22050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>VBDR Vehicle Buyer Discount Rate</t>
   </si>
@@ -88,32 +89,53 @@
     <t>https://nepis.epa.gov/Exe/ZyNET.exe/P1006V0O.txt?ZyActionD=ZyDocument&amp;Client=EPA&amp;Index=2006%20Thru%202010&amp;Docs=&amp;Query=&amp;Time=&amp;EndTime=&amp;SearchMethod=1&amp;TocRestrict=n&amp;Toc=&amp;TocEntry=&amp;QField=&amp;QFieldYear=&amp;QFieldMonth=&amp;QFieldDay=&amp;UseQField=&amp;IntQFieldOp=0&amp;ExtQFieldOp=0&amp;XmlQuery=&amp;File=D%3A%5CZYFILES%5CINDEX%20DATA%5C06THRU10%5CTXT%5C00000016%5CP1006V0O.txt&amp;User=ANONYMOUS&amp;Password=anonymous&amp;SortMethod=h%7C-&amp;MaximumDocuments=1&amp;FuzzyDegree=0&amp;ImageQuality=r75g8/r75g8/x150y150g16/i425&amp;Display=hpfr&amp;DefSeekPage=x&amp;SearchBack=ZyActionL&amp;Back=ZyActionS&amp;BackDesc=Results%20page&amp;MaximumPages=1&amp;ZyEntry=2#</t>
   </si>
   <si>
-    <t>LDVs</t>
-  </si>
-  <si>
-    <t>HDVs</t>
-  </si>
-  <si>
-    <t>aircraft</t>
-  </si>
-  <si>
-    <t>rail</t>
-  </si>
-  <si>
-    <t>ships</t>
-  </si>
-  <si>
-    <t>motorbikes</t>
-  </si>
-  <si>
-    <t>Discount Rate (dimensionless)</t>
+    <t>passenger LDVs</t>
+  </si>
+  <si>
+    <t>passenger HDVs</t>
+  </si>
+  <si>
+    <t>passenger aircraft</t>
+  </si>
+  <si>
+    <t>passenger rail</t>
+  </si>
+  <si>
+    <t>passenger ships</t>
+  </si>
+  <si>
+    <t>passenger motorbikes</t>
+  </si>
+  <si>
+    <t>freight LDVs</t>
+  </si>
+  <si>
+    <t>freight HDVs</t>
+  </si>
+  <si>
+    <t>freight aircraft</t>
+  </si>
+  <si>
+    <t>freight rail</t>
+  </si>
+  <si>
+    <t>freight ships</t>
+  </si>
+  <si>
+    <t>freight motorbikes</t>
+  </si>
+  <si>
+    <t>Unit: dimensionless</t>
+  </si>
+  <si>
+    <t>Discount Rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +145,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -150,12 +180,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -249,6 +280,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -284,6 +332,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -459,7 +524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -586,24 +651,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -651,6 +717,54 @@
         <v>27</v>
       </c>
       <c r="B7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
